--- a/Pronosticos/resultados_pronosticos.xlsx
+++ b/Pronosticos/resultados_pronosticos.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="28">
   <si>
     <t>Meses</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Agosto</t>
   </si>
   <si>
-    <t>Serptiembre</t>
+    <t>Septiembre</t>
   </si>
   <si>
     <t>Octubre</t>
@@ -181,9 +181,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>promedioMovil!$B$1:$X$1</c:f>
+              <c:f>promedioMovil!$B$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>Enero</c:v>
                 </c:pt>
@@ -209,7 +209,7 @@
                   <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Serptiembre</c:v>
+                  <c:v>Septiembre</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Octubre</c:v>
@@ -245,22 +245,25 @@
                   <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Serptiembre</c:v>
+                  <c:v>Septiembre</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Octubre</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Diciembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>promedioMovil!$B$2:$X$2</c:f>
+              <c:f>promedioMovil!$B$2:$Y$2</c:f>
               <c:numCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -329,6 +332,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2283150.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2131433.3333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,9 +423,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>promedioMovilDoble!$B$1:$X$1</c:f>
+              <c:f>promedioMovilDoble!$B$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>Enero</c:v>
                 </c:pt>
@@ -445,7 +451,7 @@
                   <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Serptiembre</c:v>
+                  <c:v>Septiembre</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Octubre</c:v>
@@ -481,22 +487,25 @@
                   <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Serptiembre</c:v>
+                  <c:v>Septiembre</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Octubre</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Diciembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>promedioMovilDoble!$B$2:$X$2</c:f>
+              <c:f>promedioMovilDoble!$B$2:$Y$2</c:f>
               <c:numCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -513,58 +522,61 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1274205.5555555557</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>935038.8888888895</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>808955.5555555557</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1234627.777777778</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1398633.3333333337</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2504055.555555556</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2339466.6666666665</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2785627.777777778</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2435455.5555555564</c:v>
+                  <c:v>2172245.9183673477</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2302533.3333333326</c:v>
+                  <c:v>2754880.612244898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1999894.4444444445</c:v>
+                  <c:v>2816757.1428571437</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2204222.2222222225</c:v>
+                  <c:v>2854480.6122448975</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2235000.0</c:v>
+                  <c:v>2702280.6122448985</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2321400.0000000005</c:v>
+                  <c:v>2682893.87755102</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2664194.444444444</c:v>
+                  <c:v>2516178.5714285714</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2643388.8888888885</c:v>
+                  <c:v>2531664.2857142864</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2340677.777777777</c:v>
+                  <c:v>2484597.959183673</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2084327.777777777</c:v>
+                  <c:v>2419119.387755103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2276129.5918367347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -653,9 +665,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>suavizacionExponencial!$B$1:$X$1</c:f>
+              <c:f>suavizacionExponencial!$B$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>Enero</c:v>
                 </c:pt>
@@ -681,7 +693,7 @@
                   <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Serptiembre</c:v>
+                  <c:v>Septiembre</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Octubre</c:v>
@@ -717,22 +729,25 @@
                   <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Serptiembre</c:v>
+                  <c:v>Septiembre</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Octubre</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Diciembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>suavizacionExponencial!$B$2:$X$2</c:f>
+              <c:f>suavizacionExponencial!$B$2:$Y$2</c:f>
               <c:numCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1884350.0</c:v>
                 </c:pt>
@@ -740,67 +755,70 @@
                   <c:v>1884350.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1930840.0</c:v>
+                  <c:v>2070310.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1974381.0</c:v>
+                  <c:v>2188686.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1890702.9000000001</c:v>
+                  <c:v>1768251.5999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1870872.61</c:v>
+                  <c:v>1737910.96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1836700.3490000002</c:v>
+                  <c:v>1654406.576</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1707895.3141</c:v>
+                  <c:v>1212103.9455999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1720330.78269</c:v>
+                  <c:v>1460162.3673599998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1709467.704421</c:v>
+                  <c:v>1520777.4204159998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1741865.9339789</c:v>
+                  <c:v>1725846.4522495999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1774524.34058101</c:v>
+                  <c:v>1862887.8713497599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1864776.9065229092</c:v>
+                  <c:v>2188552.722809856</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1873809.2158706184</c:v>
+                  <c:v>2095171.6336859134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1904383.2942835565</c:v>
+                  <c:v>2128922.980211548</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1943674.9648552008</c:v>
+                  <c:v>2196273.7881269287</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1963412.4683696807</c:v>
+                  <c:v>2174184.2728761574</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1983446.2215327127</c:v>
+                  <c:v>2170010.563725694</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2030801.5993794415</c:v>
+                  <c:v>2284806.3382354164</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2090011.4394414974</c:v>
+                  <c:v>2420043.8029412497</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2113040.2954973476</c:v>
+                  <c:v>2380146.2817647494</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2126756.265947613</c:v>
+                  <c:v>2328167.7690588497</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2141975.6393528515</c:v>
+                  <c:v>2308480.66143531</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2131148.396861186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,9 +907,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>holt!$B$1:$X$1</c:f>
+              <c:f>holt!$B$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>Enero</c:v>
                 </c:pt>
@@ -917,7 +935,7 @@
                   <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Serptiembre</c:v>
+                  <c:v>Septiembre</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Octubre</c:v>
@@ -953,22 +971,25 @@
                   <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Serptiembre</c:v>
+                  <c:v>Septiembre</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Octubre</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Diciembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>holt!$B$2:$X$2</c:f>
+              <c:f>holt!$B$2:$Y$2</c:f>
               <c:numCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -976,67 +997,70 @@
                   <c:v>1884350.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2088906.0</c:v>
+                  <c:v>2140045.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2229533.3599999994</c:v>
+                  <c:v>2287702.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1778772.4415999996</c:v>
+                  <c:v>1689701.4875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1726780.9928959997</c:v>
+                  <c:v>1668235.7818749999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1622380.8839577597</c:v>
+                  <c:v>1568923.6399687498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1124591.5832365053</c:v>
+                  <c:v>978003.8870171875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1367664.3394742925</c:v>
+                  <c:v>1367056.3161905468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1435049.419637993</c:v>
+                  <c:v>1463539.7149676993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1668116.4909506936</c:v>
+                  <c:v>1751151.9286078904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1837970.0741002862</c:v>
+                  <c:v>1928322.9389975914</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2216885.4210260306</c:v>
+                  <c:v>2358644.7972425623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2144983.212340436</c:v>
+                  <c:v>2192653.48650292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2193004.558635461</c:v>
+                  <c:v>2221227.656807952</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2273089.1840670584</c:v>
+                  <c:v>2298193.359120071</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2253358.3919633343</c:v>
+                  <c:v>2250694.0423201267</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2247015.5810225667</c:v>
+                  <c:v>2233947.1818041485</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2368909.271217203</c:v>
+                  <c:v>2383351.392455952</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2518565.114485297</c:v>
+                  <c:v>2552980.928159056</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2479388.0158667415</c:v>
+                  <c:v>2474861.6496026553</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2418674.2360609383</c:v>
+                  <c:v>2389518.9278443223</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2388156.998735019</c:v>
+                  <c:v>2355694.1205729395</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2107354.5109086013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,10 +1179,10 @@
                   <c:v>1.0959E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0876522E7</c:v>
+                  <c:v>1.06384605E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1851749058951128E7</c:v>
+                  <c:v>1.4853590217263239E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,9 +1271,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'regresion lineal'!$B$1:$X$1</c:f>
+              <c:f>'regresion lineal'!$B$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>Enero</c:v>
                 </c:pt>
@@ -1275,7 +1299,7 @@
                   <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Serptiembre</c:v>
+                  <c:v>Septiembre</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Octubre</c:v>
@@ -1311,90 +1335,96 @@
                   <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Serptiembre</c:v>
+                  <c:v>Septiembre</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Octubre</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Diciembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'regresion lineal'!$B$2:$X$2</c:f>
+              <c:f>'regresion lineal'!$B$2:$Y$2</c:f>
               <c:numCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1673014.1304347825</c:v>
+                  <c:v>1675581.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1703774.9011857708</c:v>
+                  <c:v>1705992.3188405798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1734535.6719367588</c:v>
+                  <c:v>1736402.9710144927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1765296.442687747</c:v>
+                  <c:v>1766813.6231884058</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1796057.213438735</c:v>
+                  <c:v>1797224.2753623188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1826817.9841897234</c:v>
+                  <c:v>1827634.927536232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1857578.7549407114</c:v>
+                  <c:v>1858045.579710145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1888339.5256916997</c:v>
+                  <c:v>1888456.231884058</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1919100.2964426877</c:v>
+                  <c:v>1918866.8840579712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1949861.0671936758</c:v>
+                  <c:v>1949277.536231884</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1980621.837944664</c:v>
+                  <c:v>1979688.1884057971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2011382.608695652</c:v>
+                  <c:v>2010098.8405797102</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2042143.3794466404</c:v>
+                  <c:v>2040509.4927536233</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2072904.1501976284</c:v>
+                  <c:v>2070920.1449275361</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2103664.9209486167</c:v>
+                  <c:v>2101330.797101449</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2134425.6916996045</c:v>
+                  <c:v>2131741.4492753623</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2165186.462450593</c:v>
+                  <c:v>2162152.1014492754</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2195947.233201581</c:v>
+                  <c:v>2192562.7536231885</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2226708.0039525693</c:v>
+                  <c:v>2222973.4057971016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2257468.7747035576</c:v>
+                  <c:v>2253384.0579710146</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2288229.5454545454</c:v>
+                  <c:v>2283794.7101449277</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2318990.3162055337</c:v>
+                  <c:v>2314205.362318841</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2349751.0869565215</c:v>
+                  <c:v>2344616.014492754</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2375026.666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,9 +1513,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'descomposicion de series'!$B$1:$X$1</c:f>
+              <c:f>'descomposicion de series'!$B$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>Enero</c:v>
                 </c:pt>
@@ -1511,7 +1541,7 @@
                   <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Serptiembre</c:v>
+                  <c:v>Septiembre</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Octubre</c:v>
@@ -1547,90 +1577,96 @@
                   <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Serptiembre</c:v>
+                  <c:v>Septiembre</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Octubre</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Diciembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'descomposicion de series'!$B$2:$X$2</c:f>
+              <c:f>'descomposicion de series'!$B$2:$Y$2</c:f>
               <c:numCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1602751.8410183217</c:v>
+                  <c:v>1462990.2411439142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1811489.598735886</c:v>
+                  <c:v>1842742.8286856622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1691932.9892888025</c:v>
+                  <c:v>1840289.9966254719</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1774726.5394614527</c:v>
+                  <c:v>1665873.0226141757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1720387.5921740164</c:v>
+                  <c:v>1737473.3987228891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1942050.2288067488</c:v>
+                  <c:v>2041731.3889360898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1811718.3982981928</c:v>
+                  <c:v>1614169.2457644807</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1898188.3519592646</c:v>
+                  <c:v>2029939.7837224265</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1838023.3433297114</c:v>
+                  <c:v>2024125.2619146474</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2072610.8588776116</c:v>
+                  <c:v>1829559.712533581</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1931503.8073075826</c:v>
+                  <c:v>1905444.6797445777</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2021650.1644570767</c:v>
+                  <c:v>2235987.0299181608</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1955659.0944854063</c:v>
+                  <c:v>1765348.2503850472</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2203171.4889484746</c:v>
+                  <c:v>2217136.738759191</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2051289.2163169726</c:v>
+                  <c:v>2207960.527203823</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2145111.9769548886</c:v>
+                  <c:v>1993246.4024529867</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2073294.845641101</c:v>
+                  <c:v>2073415.960766266</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2333732.1190193375</c:v>
+                  <c:v>2430242.670900231</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2171074.625326363</c:v>
+                  <c:v>1916527.2550056137</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2268573.789452701</c:v>
+                  <c:v>2404333.6937959557</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2190930.596796796</c:v>
+                  <c:v>2391795.7924929983</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2464292.7490902003</c:v>
+                  <c:v>2156933.092372392</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2290860.034335753</c:v>
+                  <c:v>2241387.2417879547</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2624498.311882302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,7 +1965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2008,6 +2044,9 @@
       <c r="X1" t="s">
         <v>11</v>
       </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -2082,6 +2121,9 @@
       <c r="X2" t="n">
         <v>2283150.0</v>
       </c>
+      <c r="Y2" t="n">
+        <v>2131433.3333333335</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2156,13 +2198,16 @@
       <c r="X3" t="n">
         <v>1.74724E11</v>
       </c>
+      <c r="Y3" t="n">
+        <v>4.582453777777771E10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0873995631944443E11</v>
+        <v>4.524449282828282E10</v>
       </c>
     </row>
   </sheetData>
@@ -2173,7 +2218,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2252,6 +2297,9 @@
       <c r="X1" t="s">
         <v>11</v>
       </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -2273,58 +2321,61 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1274205.5555555557</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>935038.8888888895</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>808955.5555555557</v>
+        <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>1234627.777777778</v>
+        <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>1398633.3333333337</v>
+        <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>2504055.555555556</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>2339466.6666666665</v>
+        <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>2785627.777777778</v>
+        <v>0.0</v>
       </c>
       <c r="O2" t="n">
-        <v>2435455.5555555564</v>
+        <v>2172245.9183673477</v>
       </c>
       <c r="P2" t="n">
-        <v>2302533.3333333326</v>
+        <v>2754880.612244898</v>
       </c>
       <c r="Q2" t="n">
-        <v>1999894.4444444445</v>
+        <v>2816757.1428571437</v>
       </c>
       <c r="R2" t="n">
-        <v>2204222.2222222225</v>
+        <v>2854480.6122448975</v>
       </c>
       <c r="S2" t="n">
-        <v>2235000.0</v>
+        <v>2702280.6122448985</v>
       </c>
       <c r="T2" t="n">
-        <v>2321400.0000000005</v>
+        <v>2682893.87755102</v>
       </c>
       <c r="U2" t="n">
-        <v>2664194.444444444</v>
+        <v>2516178.5714285714</v>
       </c>
       <c r="V2" t="n">
-        <v>2643388.8888888885</v>
+        <v>2531664.2857142864</v>
       </c>
       <c r="W2" t="n">
-        <v>2340677.777777777</v>
+        <v>2484597.959183673</v>
       </c>
       <c r="X2" t="n">
-        <v>2084327.777777777</v>
+        <v>2419119.387755103</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2276129.5918367347</v>
       </c>
     </row>
     <row r="3">
@@ -2347,58 +2398,61 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.499666975308633E10</v>
+        <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.4929637345679056E11</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0471315200308638E12</v>
+        <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.421834607716048E11</v>
+        <v>0.0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.029922002777773E11</v>
+        <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.8975220003086456E11</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1396250694444455E11</v>
+        <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.897763896604941E11</v>
+        <v>0.0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.548765336419798E10</v>
+        <v>5.334960849644898E7</v>
       </c>
       <c r="P3" t="n">
-        <v>2.7387777777769655E7</v>
+        <v>2.0938001670241568E11</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9924890864197517E10</v>
+        <v>4.5658014290816437E11</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6380007716049592E9</v>
+        <v>4.77108778692211E11</v>
       </c>
       <c r="S3" t="n">
-        <v>4.9284E10</v>
+        <v>6.016257874323223E10</v>
       </c>
       <c r="T3" t="n">
-        <v>9.090224999999973E10</v>
+        <v>3.5992653436067963E9</v>
       </c>
       <c r="U3" t="n">
-        <v>1.182633889197528E11</v>
+        <v>3.8368414744897934E10</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5459750234567874E11</v>
+        <v>7.922214413265344E10</v>
       </c>
       <c r="W3" t="n">
-        <v>3.8103185493826265E9</v>
+        <v>4.22910831164096E10</v>
       </c>
       <c r="X3" t="n">
-        <v>4.803889827160462E10</v>
+        <v>3.068820825697636E11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.812253528738029E9</v>
       </c>
     </row>
     <row r="4">
@@ -2406,7 +2460,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>1.8622586732167346E11</v>
+        <v>1.525872827355081E11</v>
       </c>
     </row>
   </sheetData>
@@ -2417,7 +2471,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2496,6 +2550,9 @@
       <c r="X1" t="s">
         <v>11</v>
       </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -2508,67 +2565,70 @@
         <v>1884350.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1930840.0</v>
+        <v>2070310.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1974381.0</v>
+        <v>2188686.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1890702.9000000001</v>
+        <v>1768251.5999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>1870872.61</v>
+        <v>1737910.96</v>
       </c>
       <c r="H2" t="n">
-        <v>1836700.3490000002</v>
+        <v>1654406.576</v>
       </c>
       <c r="I2" t="n">
-        <v>1707895.3141</v>
+        <v>1212103.9455999997</v>
       </c>
       <c r="J2" t="n">
-        <v>1720330.78269</v>
+        <v>1460162.3673599998</v>
       </c>
       <c r="K2" t="n">
-        <v>1709467.704421</v>
+        <v>1520777.4204159998</v>
       </c>
       <c r="L2" t="n">
-        <v>1741865.9339789</v>
+        <v>1725846.4522495999</v>
       </c>
       <c r="M2" t="n">
-        <v>1774524.34058101</v>
+        <v>1862887.8713497599</v>
       </c>
       <c r="N2" t="n">
-        <v>1864776.9065229092</v>
+        <v>2188552.722809856</v>
       </c>
       <c r="O2" t="n">
-        <v>1873809.2158706184</v>
+        <v>2095171.6336859134</v>
       </c>
       <c r="P2" t="n">
-        <v>1904383.2942835565</v>
+        <v>2128922.980211548</v>
       </c>
       <c r="Q2" t="n">
-        <v>1943674.9648552008</v>
+        <v>2196273.7881269287</v>
       </c>
       <c r="R2" t="n">
-        <v>1963412.4683696807</v>
+        <v>2174184.2728761574</v>
       </c>
       <c r="S2" t="n">
-        <v>1983446.2215327127</v>
+        <v>2170010.563725694</v>
       </c>
       <c r="T2" t="n">
-        <v>2030801.5993794415</v>
+        <v>2284806.3382354164</v>
       </c>
       <c r="U2" t="n">
-        <v>2090011.4394414974</v>
+        <v>2420043.8029412497</v>
       </c>
       <c r="V2" t="n">
-        <v>2113040.2954973476</v>
+        <v>2380146.2817647494</v>
       </c>
       <c r="W2" t="n">
-        <v>2126756.265947613</v>
+        <v>2328167.7690588497</v>
       </c>
       <c r="X2" t="n">
-        <v>2141975.6393528515</v>
+        <v>2308480.66143531</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2131148.396861186</v>
       </c>
     </row>
     <row r="3">
@@ -2582,67 +2642,70 @@
         <v>2.1613201E11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.895818681E11</v>
+        <v>8.75804836E10</v>
       </c>
       <c r="E3" t="n">
-        <v>7.00202441961E11</v>
+        <v>1.104781779396E12</v>
       </c>
       <c r="F3" t="n">
-        <v>3.932404014841006E10</v>
+        <v>5.7534652225599785E9</v>
       </c>
       <c r="G3" t="n">
-        <v>1.1677434218521217E11</v>
+        <v>4.358113842012158E10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.6590737015590222E12</v>
+        <v>1.2226976053672434E12</v>
       </c>
       <c r="I3" t="n">
-        <v>1.546408790528764E10</v>
+        <v>3.8458112878788806E11</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1800646947842009E10</v>
+        <v>2.2963654106135654E10</v>
       </c>
       <c r="K3" t="n">
-        <v>1.0496452784863846E11</v>
+        <v>2.62833173857313E11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0665715217887415E11</v>
+        <v>1.1737719093116072E11</v>
       </c>
       <c r="M3" t="n">
-        <v>8.145525659096826E11</v>
+        <v>6.628599717282902E11</v>
       </c>
       <c r="N3" t="n">
-        <v>8.158261215271286E9</v>
+        <v>5.450017378733538E10</v>
       </c>
       <c r="O3" t="n">
-        <v>9.347742708004915E10</v>
+        <v>7.119708701834184E9</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5438353763106226E11</v>
+        <v>2.8350820792840744E10</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.8956904498410706E10</v>
+        <v>3.049666775087915E9</v>
       </c>
       <c r="R3" t="n">
-        <v>4.013512657972919E10</v>
+        <v>1.0887405045411456E8</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2425318110064462E11</v>
+        <v>8.23629365330439E10</v>
       </c>
       <c r="T3" t="n">
-        <v>3.505805160174234E11</v>
+        <v>1.1430732412538463E11</v>
       </c>
       <c r="U3" t="n">
-        <v>5.30328211241071E10</v>
+        <v>9.94882622518285E9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8812784539254925E10</v>
+        <v>1.6886036144483652E10</v>
       </c>
       <c r="W3" t="n">
-        <v>2.3162932684808723E10</v>
+        <v>2.422388791130259E9</v>
       </c>
       <c r="X3" t="n">
-        <v>7.663243460311504E10</v>
+        <v>1.9654207536866928E11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.594660976817971E10</v>
       </c>
     </row>
     <row r="4">
@@ -2650,7 +2713,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>2.2982333235535666E11</v>
+        <v>4.609502429784466E10</v>
       </c>
     </row>
   </sheetData>
@@ -2661,7 +2724,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2740,6 +2803,9 @@
       <c r="X1" t="s">
         <v>11</v>
       </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -2752,67 +2818,70 @@
         <v>1884350.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2088906.0</v>
+        <v>2140045.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2229533.3599999994</v>
+        <v>2287702.75</v>
       </c>
       <c r="F2" t="n">
-        <v>1778772.4415999996</v>
+        <v>1689701.4875</v>
       </c>
       <c r="G2" t="n">
-        <v>1726780.9928959997</v>
+        <v>1668235.7818749999</v>
       </c>
       <c r="H2" t="n">
-        <v>1622380.8839577597</v>
+        <v>1568923.6399687498</v>
       </c>
       <c r="I2" t="n">
-        <v>1124591.5832365053</v>
+        <v>978003.8870171875</v>
       </c>
       <c r="J2" t="n">
-        <v>1367664.3394742925</v>
+        <v>1367056.3161905468</v>
       </c>
       <c r="K2" t="n">
-        <v>1435049.419637993</v>
+        <v>1463539.7149676993</v>
       </c>
       <c r="L2" t="n">
-        <v>1668116.4909506936</v>
+        <v>1751151.9286078904</v>
       </c>
       <c r="M2" t="n">
-        <v>1837970.0741002862</v>
+        <v>1928322.9389975914</v>
       </c>
       <c r="N2" t="n">
-        <v>2216885.4210260306</v>
+        <v>2358644.7972425623</v>
       </c>
       <c r="O2" t="n">
-        <v>2144983.212340436</v>
+        <v>2192653.48650292</v>
       </c>
       <c r="P2" t="n">
-        <v>2193004.558635461</v>
+        <v>2221227.656807952</v>
       </c>
       <c r="Q2" t="n">
-        <v>2273089.1840670584</v>
+        <v>2298193.359120071</v>
       </c>
       <c r="R2" t="n">
-        <v>2253358.3919633343</v>
+        <v>2250694.0423201267</v>
       </c>
       <c r="S2" t="n">
-        <v>2247015.5810225667</v>
+        <v>2233947.1818041485</v>
       </c>
       <c r="T2" t="n">
-        <v>2368909.271217203</v>
+        <v>2383351.392455952</v>
       </c>
       <c r="U2" t="n">
-        <v>2518565.114485297</v>
+        <v>2552980.928159056</v>
       </c>
       <c r="V2" t="n">
-        <v>2479388.0158667415</v>
+        <v>2474861.6496026553</v>
       </c>
       <c r="W2" t="n">
-        <v>2418674.2360609383</v>
+        <v>2389518.9278443223</v>
       </c>
       <c r="X2" t="n">
-        <v>2388156.998735019</v>
+        <v>2355694.1205729395</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2107354.5109086013</v>
       </c>
     </row>
     <row r="3">
@@ -2826,67 +2895,70 @@
         <v>2.1613201E11</v>
       </c>
       <c r="D3" t="n">
-        <v>7.6919694336E10</v>
+        <v>5.1168702025E10</v>
       </c>
       <c r="E3" t="n">
-        <v>1.1923184626808882E12</v>
+        <v>1.3227363355575625E12</v>
       </c>
       <c r="F3" t="n">
-        <v>7.4601986679453335E9</v>
+        <v>7281969.712655999</v>
       </c>
       <c r="G3" t="n">
-        <v>3.905800935305868E10</v>
+        <v>1.934485471978004E10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1528980111647122E12</v>
+        <v>1.0409583004150822E12</v>
       </c>
       <c r="I3" t="n">
-        <v>5.00780434816216E11</v>
+        <v>7.29736421546244E11</v>
       </c>
       <c r="J3" t="n">
-        <v>5.955340360821837E10</v>
+        <v>5.9850532027859695E10</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5808325457758685E11</v>
+        <v>3.2479773298559827E11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.6026691846773108E11</v>
+        <v>1.006780661091523E11</v>
       </c>
       <c r="M3" t="n">
-        <v>7.040551220478691E11</v>
+        <v>5.605922118773046E11</v>
       </c>
       <c r="N3" t="n">
-        <v>6.853160666177608E10</v>
+        <v>1.628484033815407E11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.19486280910139E9</v>
+        <v>1.7170135853220168E8</v>
       </c>
       <c r="P3" t="n">
-        <v>1.0877539089423964E10</v>
+        <v>5.787001398728717E9</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7434346129094524E10</v>
+        <v>2.469403531553958E10</v>
       </c>
       <c r="R3" t="n">
-        <v>8.029663910254553E9</v>
+        <v>7.559266494963977E9</v>
       </c>
       <c r="S3" t="n">
-        <v>4.409345621329027E10</v>
+        <v>4.975255970511159E10</v>
       </c>
       <c r="T3" t="n">
-        <v>6.451129030761646E10</v>
+        <v>5.7383535376292435E10</v>
       </c>
       <c r="U3" t="n">
-        <v>3.930905562186788E10</v>
+        <v>5.4140414328959885E10</v>
       </c>
       <c r="V3" t="n">
-        <v>5.252714661693377E10</v>
+        <v>5.047285680218628E10</v>
       </c>
       <c r="W3" t="n">
-        <v>1.952286214281282E10</v>
+        <v>1.2225487804642948E10</v>
       </c>
       <c r="X3" t="n">
-        <v>2.7353632072581216E11</v>
+        <v>2.4063353422867862E11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5.671327397458148E10</v>
       </c>
     </row>
     <row r="4">
@@ -2894,7 +2966,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>2.3032243954310046E11</v>
+        <v>5.086669698074707E10</v>
       </c>
     </row>
   </sheetData>
@@ -2905,7 +2977,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2939,10 +3011,10 @@
         <v>1.0959E7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0876522E7</v>
+        <v>1.06384605E7</v>
       </c>
       <c r="E2" t="n">
-        <v>1.1851749058951128E7</v>
+        <v>1.4853590217263239E7</v>
       </c>
     </row>
     <row r="3">
@@ -2956,18 +3028,10 @@
         <v>3.51375025E10</v>
       </c>
       <c r="D3" t="n">
-        <v>5.369545603984E12</v>
+        <v>6.52950442881025E12</v>
       </c>
       <c r="E3" t="n">
-        <v>2.64452094632121E11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.8897117337053738E12</v>
+        <v>1.370281456752396E12</v>
       </c>
     </row>
   </sheetData>
@@ -2978,7 +3042,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3057,79 +3121,85 @@
       <c r="X1" t="s">
         <v>11</v>
       </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="n">
-        <v>1673014.1304347825</v>
+        <v>1675581.6666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>1703774.9011857708</v>
+        <v>1705992.3188405798</v>
       </c>
       <c r="D2" t="n">
-        <v>1734535.6719367588</v>
+        <v>1736402.9710144927</v>
       </c>
       <c r="E2" t="n">
-        <v>1765296.442687747</v>
+        <v>1766813.6231884058</v>
       </c>
       <c r="F2" t="n">
-        <v>1796057.213438735</v>
+        <v>1797224.2753623188</v>
       </c>
       <c r="G2" t="n">
-        <v>1826817.9841897234</v>
+        <v>1827634.927536232</v>
       </c>
       <c r="H2" t="n">
-        <v>1857578.7549407114</v>
+        <v>1858045.579710145</v>
       </c>
       <c r="I2" t="n">
-        <v>1888339.5256916997</v>
+        <v>1888456.231884058</v>
       </c>
       <c r="J2" t="n">
-        <v>1919100.2964426877</v>
+        <v>1918866.8840579712</v>
       </c>
       <c r="K2" t="n">
-        <v>1949861.0671936758</v>
+        <v>1949277.536231884</v>
       </c>
       <c r="L2" t="n">
-        <v>1980621.837944664</v>
+        <v>1979688.1884057971</v>
       </c>
       <c r="M2" t="n">
-        <v>2011382.608695652</v>
+        <v>2010098.8405797102</v>
       </c>
       <c r="N2" t="n">
-        <v>2042143.3794466404</v>
+        <v>2040509.4927536233</v>
       </c>
       <c r="O2" t="n">
-        <v>2072904.1501976284</v>
+        <v>2070920.1449275361</v>
       </c>
       <c r="P2" t="n">
-        <v>2103664.9209486167</v>
+        <v>2101330.797101449</v>
       </c>
       <c r="Q2" t="n">
-        <v>2134425.6916996045</v>
+        <v>2131741.4492753623</v>
       </c>
       <c r="R2" t="n">
-        <v>2165186.462450593</v>
+        <v>2162152.1014492754</v>
       </c>
       <c r="S2" t="n">
-        <v>2195947.233201581</v>
+        <v>2192562.7536231885</v>
       </c>
       <c r="T2" t="n">
-        <v>2226708.0039525693</v>
+        <v>2222973.4057971016</v>
       </c>
       <c r="U2" t="n">
-        <v>2257468.7747035576</v>
+        <v>2253384.0579710146</v>
       </c>
       <c r="V2" t="n">
-        <v>2288229.5454545454</v>
+        <v>2283794.7101449277</v>
       </c>
       <c r="W2" t="n">
-        <v>2318990.3162055337</v>
+        <v>2314205.362318841</v>
       </c>
       <c r="X2" t="n">
-        <v>2349751.0869565215</v>
+        <v>2344616.014492754</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2375026.666666667</v>
       </c>
     </row>
     <row r="3">
@@ -3137,73 +3207,76 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>4.4662849764886635E10</v>
+        <v>4.358421700277775E10</v>
       </c>
       <c r="C3" t="n">
-        <v>4.16638103189239E11</v>
+        <v>4.1378044437059424E11</v>
       </c>
       <c r="D3" t="n">
-        <v>3.9906299228039233E11</v>
+        <v>3.967072799218705E11</v>
       </c>
       <c r="E3" t="n">
-        <v>3.940028241628521E11</v>
+        <v>3.959097836058811E11</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0744817897883488E10</v>
+        <v>1.0988128705235247E10</v>
       </c>
       <c r="G3" t="n">
-        <v>8.860622881157341E10</v>
+        <v>8.909325196630963E10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.7132944855106409E12</v>
+        <v>1.7145167841644668E12</v>
       </c>
       <c r="I3" t="n">
-        <v>3.146034892319841E9</v>
+        <v>3.1591405026045094E9</v>
       </c>
       <c r="J3" t="n">
-        <v>9.44949422530523E10</v>
+        <v>9.435149466188312E10</v>
       </c>
       <c r="K3" t="n">
-        <v>6.987109687700185E9</v>
+        <v>7.085003656794795E9</v>
       </c>
       <c r="L3" t="n">
-        <v>7.713786050018352E9</v>
+        <v>7.878659197484769E9</v>
       </c>
       <c r="M3" t="n">
-        <v>4.4311307584593585E11</v>
+        <v>4.448238490520688E11</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5765499054918165E9</v>
+        <v>7.294781452431229E9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1373337280069998E10</v>
+        <v>1.1800445413064503E10</v>
       </c>
       <c r="P3" t="n">
-        <v>3.749454383923546E10</v>
+        <v>3.840392848469336E10</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.388146045868867E7</v>
+        <v>8.664911659315296E7</v>
       </c>
       <c r="R3" t="n">
-        <v>2063424.3719630109</v>
+        <v>2553279.778407811</v>
       </c>
       <c r="S3" t="n">
-        <v>6.81485470531097E10</v>
+        <v>6.992705727135052E10</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5696809773204733E11</v>
+        <v>1.599412807507298E11</v>
       </c>
       <c r="U3" t="n">
-        <v>3.947762872252303E9</v>
+        <v>4.477743297626529E9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4462463274793355E9</v>
+        <v>1.1286045497217097E9</v>
       </c>
       <c r="W3" t="n">
-        <v>1.6032269218391235E9</v>
+        <v>1.2429405722327404E9</v>
       </c>
       <c r="X3" t="n">
-        <v>2.348382134794421E11</v>
+        <v>2.2988765905356567E11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.718240444444628E8</v>
       </c>
     </row>
     <row r="4">
@@ -3211,7 +3284,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>1.8025694437575186E11</v>
+        <v>4.707006234852734E10</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3295,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3301,79 +3374,85 @@
       <c r="X1" t="s">
         <v>11</v>
       </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>1602751.8410183217</v>
+        <v>1462990.2411439142</v>
       </c>
       <c r="C2" t="n">
-        <v>1811489.598735886</v>
+        <v>1842742.8286856622</v>
       </c>
       <c r="D2" t="n">
-        <v>1691932.9892888025</v>
+        <v>1840289.9966254719</v>
       </c>
       <c r="E2" t="n">
-        <v>1774726.5394614527</v>
+        <v>1665873.0226141757</v>
       </c>
       <c r="F2" t="n">
-        <v>1720387.5921740164</v>
+        <v>1737473.3987228891</v>
       </c>
       <c r="G2" t="n">
-        <v>1942050.2288067488</v>
+        <v>2041731.3889360898</v>
       </c>
       <c r="H2" t="n">
-        <v>1811718.3982981928</v>
+        <v>1614169.2457644807</v>
       </c>
       <c r="I2" t="n">
-        <v>1898188.3519592646</v>
+        <v>2029939.7837224265</v>
       </c>
       <c r="J2" t="n">
-        <v>1838023.3433297114</v>
+        <v>2024125.2619146474</v>
       </c>
       <c r="K2" t="n">
-        <v>2072610.8588776116</v>
+        <v>1829559.712533581</v>
       </c>
       <c r="L2" t="n">
-        <v>1931503.8073075826</v>
+        <v>1905444.6797445777</v>
       </c>
       <c r="M2" t="n">
-        <v>2021650.1644570767</v>
+        <v>2235987.0299181608</v>
       </c>
       <c r="N2" t="n">
-        <v>1955659.0944854063</v>
+        <v>1765348.2503850472</v>
       </c>
       <c r="O2" t="n">
-        <v>2203171.4889484746</v>
+        <v>2217136.738759191</v>
       </c>
       <c r="P2" t="n">
-        <v>2051289.2163169726</v>
+        <v>2207960.527203823</v>
       </c>
       <c r="Q2" t="n">
-        <v>2145111.9769548886</v>
+        <v>1993246.4024529867</v>
       </c>
       <c r="R2" t="n">
-        <v>2073294.845641101</v>
+        <v>2073415.960766266</v>
       </c>
       <c r="S2" t="n">
-        <v>2333732.1190193375</v>
+        <v>2430242.670900231</v>
       </c>
       <c r="T2" t="n">
-        <v>2171074.625326363</v>
+        <v>1916527.2550056137</v>
       </c>
       <c r="U2" t="n">
-        <v>2268573.789452701</v>
+        <v>2404333.6937959557</v>
       </c>
       <c r="V2" t="n">
-        <v>2190930.596796796</v>
+        <v>2391795.7924929983</v>
       </c>
       <c r="W2" t="n">
-        <v>2464292.7490902003</v>
+        <v>2156933.092372392</v>
       </c>
       <c r="X2" t="n">
-        <v>2290860.034335753</v>
+        <v>2241387.2417879547</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2624498.311882302</v>
       </c>
     </row>
     <row r="3">
@@ -3381,73 +3460,76 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>7.929752314187057E10</v>
+        <v>1.775440463832588E11</v>
       </c>
       <c r="C3" t="n">
-        <v>2.8918624916774097E11</v>
+        <v>2.565495145928519E11</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547034309344852E11</v>
+        <v>2.7663392514973364E11</v>
       </c>
       <c r="E3" t="n">
-        <v>4.059302272861261E11</v>
+        <v>2.7907238642191736E11</v>
       </c>
       <c r="F3" t="n">
-        <v>7.833053156990643E8</v>
+        <v>2.031611272432544E9</v>
       </c>
       <c r="G3" t="n">
-        <v>1.7048659894866547E11</v>
+        <v>2.6273968028365097E11</v>
       </c>
       <c r="H3" t="n">
-        <v>1.595341778779562E12</v>
+        <v>1.1353312630945078E12</v>
       </c>
       <c r="I3" t="n">
-        <v>4.347866259103854E9</v>
+        <v>3.908125058821977E10</v>
       </c>
       <c r="J3" t="n">
-        <v>5.12222557359384E10</v>
+        <v>1.700945966653655E11</v>
       </c>
       <c r="K3" t="n">
-        <v>1.5335728680322096E9</v>
+        <v>4.157124932313895E10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.8754259692948723E10</v>
+        <v>2.6570734431572777E10</v>
       </c>
       <c r="M3" t="n">
-        <v>4.295489444296909E11</v>
+        <v>1.9453654357741342E11</v>
       </c>
       <c r="N3" t="n">
-        <v>312586.6436117334</v>
+        <v>3.600572648193575E10</v>
       </c>
       <c r="O3" t="n">
-        <v>5.579747401429094E8</v>
+        <v>1.412762930551654E9</v>
       </c>
       <c r="P3" t="n">
-        <v>6.052130568833729E10</v>
+        <v>7.981541399498855E9</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6499656782045677E7</v>
+        <v>2.184590344783948E10</v>
       </c>
       <c r="R3" t="n">
-        <v>8.182134950092242E9</v>
+        <v>8.160238644281775E9</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5194970481462784E10</v>
+        <v>7.159546605533328E8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.0414616919897253E11</v>
+        <v>4.9896245487090436E11</v>
       </c>
       <c r="U3" t="n">
-        <v>2.675600857583519E9</v>
+        <v>7.06166169299245E9</v>
       </c>
       <c r="V3" t="n">
-        <v>3.512862156063946E9</v>
+        <v>2.0049368451720234E10</v>
       </c>
       <c r="W3" t="n">
-        <v>3.435193464031294E10</v>
+        <v>1.4888125747004263E10</v>
       </c>
       <c r="X3" t="n">
-        <v>1.8122903333414795E11</v>
+        <v>1.415544621082079E11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7.784005803317435E10</v>
       </c>
     </row>
     <row r="4">
@@ -3455,7 +3537,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>1.7441412221088724E11</v>
+        <v>7.27702301806117E10</v>
       </c>
     </row>
   </sheetData>
